--- a/conf/freshEnrollCourses.xlsx
+++ b/conf/freshEnrollCourses.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\95129032\Desktop\jvm\automata-newentries\conf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\apps\Job\automata-newentries\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="18195" windowHeight="11835" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="138" windowWidth="18198" windowHeight="11838"/>
   </bookViews>
   <sheets>
     <sheet name="courses" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'course  and assistant link'!$D$1:$D$192</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -561,36 +561,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W479"/>
+  <dimension ref="A1:X479"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A464" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="Q476" sqref="Q476"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.68359375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.42578125" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" customWidth="1"/>
+    <col min="3" max="3" width="3.41796875" customWidth="1"/>
+    <col min="4" max="4" width="4.41796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.26171875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.41796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.83984375" customWidth="1"/>
+    <col min="9" max="9" width="5.578125" customWidth="1"/>
     <col min="10" max="10" width="5" customWidth="1"/>
-    <col min="11" max="12" width="6.5703125" customWidth="1"/>
+    <col min="11" max="12" width="6.578125" customWidth="1"/>
     <col min="13" max="13" width="5" customWidth="1"/>
-    <col min="14" max="15" width="6.5703125" customWidth="1"/>
+    <col min="14" max="15" width="6.578125" customWidth="1"/>
     <col min="16" max="16" width="5" customWidth="1"/>
-    <col min="17" max="18" width="6.5703125" customWidth="1"/>
+    <col min="17" max="18" width="6.578125" customWidth="1"/>
     <col min="20" max="21" width="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.15625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,8 +658,12 @@
       <c r="W1" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X1">
+        <f ca="1">_xlfn.FLOOR.MATH(RAND()*3)+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,8 +731,12 @@
       <c r="W2" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X2">
+        <f t="shared" ref="X2:X65" ca="1" si="0">_xlfn.FLOOR.MATH(RAND()*3)+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -796,8 +804,12 @@
       <c r="W3" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -865,8 +877,12 @@
       <c r="W4" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -934,8 +950,12 @@
       <c r="W5" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X5">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1003,8 +1023,12 @@
       <c r="W6" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1072,8 +1096,12 @@
       <c r="W7" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X7">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1141,8 +1169,12 @@
       <c r="W8" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1210,8 +1242,12 @@
       <c r="W9" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1279,8 +1315,12 @@
       <c r="W10" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X10">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1348,8 +1388,12 @@
       <c r="W11" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X11">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1417,8 +1461,12 @@
       <c r="W12" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X12">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1486,8 +1534,12 @@
       <c r="W13" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X13">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1555,8 +1607,12 @@
       <c r="W14" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X14">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1624,8 +1680,12 @@
       <c r="W15" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X15">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1693,8 +1753,12 @@
       <c r="W16" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X16">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1762,8 +1826,12 @@
       <c r="W17" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X17">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1831,8 +1899,12 @@
       <c r="W18" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X18">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1900,8 +1972,12 @@
       <c r="W19" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X19">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1969,8 +2045,12 @@
       <c r="W20" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X20">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -2038,8 +2118,12 @@
       <c r="W21" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X21">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -2107,8 +2191,12 @@
       <c r="W22" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X22">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -2176,8 +2264,12 @@
       <c r="W23" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X23">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -2245,8 +2337,12 @@
       <c r="W24" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X24">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -2314,8 +2410,12 @@
       <c r="W25" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X25">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -2383,8 +2483,12 @@
       <c r="W26" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X26">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -2452,8 +2556,12 @@
       <c r="W27" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X27">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -2521,8 +2629,12 @@
       <c r="W28" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2590,8 +2702,12 @@
       <c r="W29" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X29">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -2659,8 +2775,12 @@
       <c r="W30" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X30">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -2728,8 +2848,12 @@
       <c r="W31" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X31">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -2797,8 +2921,12 @@
       <c r="W32" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X32">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -2866,8 +2994,12 @@
       <c r="W33" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X33">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -2937,8 +3069,12 @@
       <c r="W34" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X34">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
@@ -3008,8 +3144,12 @@
       <c r="W35" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X35">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
@@ -3079,8 +3219,12 @@
       <c r="W36" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X36">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
@@ -3150,8 +3294,12 @@
       <c r="W37" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X37">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
@@ -3221,8 +3369,12 @@
       <c r="W38" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X38">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>4</v>
       </c>
@@ -3292,8 +3444,12 @@
       <c r="W39" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X39">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
         <v>4</v>
       </c>
@@ -3363,8 +3519,12 @@
       <c r="W40" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X40">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
         <v>4</v>
       </c>
@@ -3434,8 +3594,12 @@
       <c r="W41" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X41">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -3505,8 +3669,12 @@
       <c r="W42" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X42">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
         <v>4</v>
       </c>
@@ -3576,8 +3744,12 @@
       <c r="W43" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X43">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
         <v>4</v>
       </c>
@@ -3647,8 +3819,12 @@
       <c r="W44" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X44">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>4</v>
       </c>
@@ -3718,8 +3894,12 @@
       <c r="W45" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X45">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
         <v>4</v>
       </c>
@@ -3789,8 +3969,12 @@
       <c r="W46" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X46">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
         <v>4</v>
       </c>
@@ -3860,8 +4044,12 @@
       <c r="W47" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X47">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
         <v>4</v>
       </c>
@@ -3931,8 +4119,12 @@
       <c r="W48" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X48">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
@@ -4002,8 +4194,12 @@
       <c r="W49" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X49">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
         <v>4</v>
       </c>
@@ -4073,8 +4269,12 @@
       <c r="W50" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X50">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -4144,8 +4344,12 @@
       <c r="W51" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X51">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
         <v>4</v>
       </c>
@@ -4215,8 +4419,12 @@
       <c r="W52" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X52">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
         <v>4</v>
       </c>
@@ -4286,8 +4494,12 @@
       <c r="W53" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X53">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
         <v>6</v>
       </c>
@@ -4355,8 +4567,12 @@
       <c r="W54" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X54">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
         <v>6</v>
       </c>
@@ -4424,8 +4640,12 @@
       <c r="W55" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X55">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
         <v>6</v>
       </c>
@@ -4493,8 +4713,12 @@
       <c r="W56" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X56">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>6</v>
       </c>
@@ -4562,8 +4786,12 @@
       <c r="W57" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X57">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
@@ -4631,8 +4859,12 @@
       <c r="W58" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X58">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
         <v>6</v>
       </c>
@@ -4700,8 +4932,12 @@
       <c r="W59" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X59">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
@@ -4769,8 +5005,12 @@
       <c r="W60" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X60">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
@@ -4838,8 +5078,12 @@
       <c r="W61" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X61">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
@@ -4907,8 +5151,12 @@
       <c r="W62" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X62">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>6</v>
       </c>
@@ -4976,8 +5224,12 @@
       <c r="W63" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X63">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
@@ -5045,8 +5297,12 @@
       <c r="W64" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X64">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
@@ -5114,8 +5370,12 @@
       <c r="W65" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X65">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
@@ -5183,8 +5443,12 @@
       <c r="W66" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X66">
+        <f t="shared" ref="X66:X125" ca="1" si="1">_xlfn.FLOOR.MATH(RAND()*3)+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
@@ -5252,8 +5516,12 @@
       <c r="W67" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X67">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
         <v>6</v>
       </c>
@@ -5321,8 +5589,12 @@
       <c r="W68" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X68">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>6</v>
       </c>
@@ -5390,8 +5662,12 @@
       <c r="W69" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X69">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
         <v>6</v>
       </c>
@@ -5459,8 +5735,12 @@
       <c r="W70" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X70">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
         <v>6</v>
       </c>
@@ -5528,8 +5808,12 @@
       <c r="W71" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X71">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
         <v>6</v>
       </c>
@@ -5597,8 +5881,12 @@
       <c r="W72" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X72">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
         <v>6</v>
       </c>
@@ -5666,8 +5954,12 @@
       <c r="W73" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X73">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
         <v>6</v>
       </c>
@@ -5735,8 +6027,12 @@
       <c r="W74" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X74">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
         <v>7</v>
       </c>
@@ -5806,8 +6102,12 @@
       <c r="W75" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X75">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
@@ -5877,8 +6177,12 @@
       <c r="W76" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X76">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
         <v>7</v>
       </c>
@@ -5948,8 +6252,12 @@
       <c r="W77" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X77">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
         <v>7</v>
       </c>
@@ -6019,8 +6327,12 @@
       <c r="W78" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X78">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
         <v>7</v>
       </c>
@@ -6090,8 +6402,12 @@
       <c r="W79" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X79">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
         <v>7</v>
       </c>
@@ -6161,8 +6477,12 @@
       <c r="W80" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X80">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1" t="s">
         <v>7</v>
       </c>
@@ -6232,8 +6552,12 @@
       <c r="W81" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X81">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1" t="s">
         <v>7</v>
       </c>
@@ -6303,8 +6627,12 @@
       <c r="W82" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X82">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1" t="s">
         <v>7</v>
       </c>
@@ -6374,8 +6702,12 @@
       <c r="W83" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X83">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1" t="s">
         <v>7</v>
       </c>
@@ -6445,8 +6777,12 @@
       <c r="W84" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X84">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1" t="s">
         <v>7</v>
       </c>
@@ -6516,8 +6852,12 @@
       <c r="W85" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X85">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1" t="s">
         <v>7</v>
       </c>
@@ -6587,8 +6927,12 @@
       <c r="W86" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X86">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1" t="s">
         <v>7</v>
       </c>
@@ -6658,8 +7002,12 @@
       <c r="W87" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X87">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1" t="s">
         <v>7</v>
       </c>
@@ -6729,8 +7077,12 @@
       <c r="W88" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X88">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1" t="s">
         <v>7</v>
       </c>
@@ -6800,8 +7152,12 @@
       <c r="W89" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X89">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1" t="s">
         <v>7</v>
       </c>
@@ -6871,8 +7227,12 @@
       <c r="W90" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X90">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1" t="s">
         <v>7</v>
       </c>
@@ -6942,8 +7302,12 @@
       <c r="W91" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X91">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1" t="s">
         <v>7</v>
       </c>
@@ -7013,8 +7377,12 @@
       <c r="W92" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X92">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1" t="s">
         <v>7</v>
       </c>
@@ -7084,8 +7452,12 @@
       <c r="W93" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X93">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1" t="s">
         <v>7</v>
       </c>
@@ -7155,8 +7527,12 @@
       <c r="W94" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X94">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
@@ -7224,8 +7600,12 @@
       <c r="W95" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X95">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1" t="s">
         <v>9</v>
       </c>
@@ -7293,8 +7673,12 @@
       <c r="W96" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X96">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1" t="s">
         <v>9</v>
       </c>
@@ -7362,8 +7746,12 @@
       <c r="W97" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X97">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1" t="s">
         <v>9</v>
       </c>
@@ -7431,8 +7819,12 @@
       <c r="W98" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X98">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1" t="s">
         <v>9</v>
       </c>
@@ -7500,8 +7892,12 @@
       <c r="W99" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X99">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1" t="s">
         <v>9</v>
       </c>
@@ -7569,8 +7965,12 @@
       <c r="W100" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X100">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1" t="s">
         <v>9</v>
       </c>
@@ -7638,8 +8038,12 @@
       <c r="W101" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X101">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1" t="s">
         <v>9</v>
       </c>
@@ -7707,8 +8111,12 @@
       <c r="W102" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X102">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1" t="s">
         <v>9</v>
       </c>
@@ -7776,8 +8184,12 @@
       <c r="W103" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X103">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1" t="s">
         <v>9</v>
       </c>
@@ -7845,8 +8257,12 @@
       <c r="W104" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X104">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1" t="s">
         <v>9</v>
       </c>
@@ -7914,8 +8330,12 @@
       <c r="W105" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X105">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1" t="s">
         <v>9</v>
       </c>
@@ -7983,8 +8403,12 @@
       <c r="W106" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X106">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1" t="s">
         <v>9</v>
       </c>
@@ -8052,8 +8476,12 @@
       <c r="W107" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X107">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1" t="s">
         <v>9</v>
       </c>
@@ -8121,8 +8549,12 @@
       <c r="W108" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X108">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1" t="s">
         <v>9</v>
       </c>
@@ -8190,8 +8622,12 @@
       <c r="W109" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X109">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1" t="s">
         <v>9</v>
       </c>
@@ -8259,8 +8695,12 @@
       <c r="W110" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X110">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1" t="s">
         <v>9</v>
       </c>
@@ -8328,8 +8768,12 @@
       <c r="W111" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X111">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1" t="s">
         <v>9</v>
       </c>
@@ -8397,8 +8841,12 @@
       <c r="W112" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X112">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1" t="s">
         <v>9</v>
       </c>
@@ -8466,8 +8914,12 @@
       <c r="W113" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X113">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1" t="s">
         <v>9</v>
       </c>
@@ -8535,8 +8987,12 @@
       <c r="W114" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X114">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1" t="s">
         <v>9</v>
       </c>
@@ -8604,8 +9060,12 @@
       <c r="W115" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X115">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1" t="s">
         <v>9</v>
       </c>
@@ -8673,8 +9133,12 @@
       <c r="W116" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X116">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1" t="s">
         <v>9</v>
       </c>
@@ -8742,8 +9206,12 @@
       <c r="W117" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X117">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1" t="s">
         <v>9</v>
       </c>
@@ -8811,8 +9279,12 @@
       <c r="W118" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X118">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1" t="s">
         <v>9</v>
       </c>
@@ -8880,8 +9352,12 @@
       <c r="W119" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X119">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1" t="s">
         <v>9</v>
       </c>
@@ -8949,8 +9425,12 @@
       <c r="W120" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X120">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1" t="s">
         <v>9</v>
       </c>
@@ -9018,8 +9498,12 @@
       <c r="W121" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X121">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1" t="s">
         <v>9</v>
       </c>
@@ -9087,8 +9571,12 @@
       <c r="W122" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X122">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1" t="s">
         <v>9</v>
       </c>
@@ -9156,8 +9644,12 @@
       <c r="W123" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X123">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1" t="s">
         <v>9</v>
       </c>
@@ -9225,8 +9717,12 @@
       <c r="W124" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X124">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1" t="s">
         <v>9</v>
       </c>
@@ -9294,8 +9790,12 @@
       <c r="W125" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X125">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1" t="s">
         <v>9</v>
       </c>
@@ -9363,8 +9863,12 @@
       <c r="W126" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X126">
+        <f ca="1">_xlfn.FLOOR.MATH(RAND()*3)+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1" t="s">
         <v>9</v>
       </c>
@@ -9432,8 +9936,12 @@
       <c r="W127" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X127">
+        <f t="shared" ref="X127:X190" ca="1" si="2">_xlfn.FLOOR.MATH(RAND()*3)+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1" t="s">
         <v>9</v>
       </c>
@@ -9501,8 +10009,12 @@
       <c r="W128" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X128">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1" t="s">
         <v>9</v>
       </c>
@@ -9570,8 +10082,12 @@
       <c r="W129" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X129">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1" t="s">
         <v>9</v>
       </c>
@@ -9639,8 +10155,12 @@
       <c r="W130" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X130">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1" t="s">
         <v>9</v>
       </c>
@@ -9708,8 +10228,12 @@
       <c r="W131" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X131">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1" t="s">
         <v>10</v>
       </c>
@@ -9779,8 +10303,12 @@
       <c r="W132" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X132">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1" t="s">
         <v>10</v>
       </c>
@@ -9850,8 +10378,12 @@
       <c r="W133" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X133">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1" t="s">
         <v>10</v>
       </c>
@@ -9921,8 +10453,12 @@
       <c r="W134" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X134">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1" t="s">
         <v>10</v>
       </c>
@@ -9992,8 +10528,12 @@
       <c r="W135" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X135">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1" t="s">
         <v>10</v>
       </c>
@@ -10063,8 +10603,12 @@
       <c r="W136" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X136">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1" t="s">
         <v>10</v>
       </c>
@@ -10134,8 +10678,12 @@
       <c r="W137" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X137">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1" t="s">
         <v>10</v>
       </c>
@@ -10205,8 +10753,12 @@
       <c r="W138" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X138">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1" t="s">
         <v>10</v>
       </c>
@@ -10276,8 +10828,12 @@
       <c r="W139" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X139">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1" t="s">
         <v>10</v>
       </c>
@@ -10347,8 +10903,12 @@
       <c r="W140" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X140">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1" t="s">
         <v>10</v>
       </c>
@@ -10418,8 +10978,12 @@
       <c r="W141" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X141">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1" t="s">
         <v>10</v>
       </c>
@@ -10489,8 +11053,12 @@
       <c r="W142" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X142">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1" t="s">
         <v>10</v>
       </c>
@@ -10560,8 +11128,12 @@
       <c r="W143" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X143">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1" t="s">
         <v>10</v>
       </c>
@@ -10631,8 +11203,12 @@
       <c r="W144" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X144">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1" t="s">
         <v>10</v>
       </c>
@@ -10702,8 +11278,12 @@
       <c r="W145" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X145">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1" t="s">
         <v>10</v>
       </c>
@@ -10773,8 +11353,12 @@
       <c r="W146" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X146">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1" t="s">
         <v>10</v>
       </c>
@@ -10844,8 +11428,12 @@
       <c r="W147" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X147">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1" t="s">
         <v>10</v>
       </c>
@@ -10915,8 +11503,12 @@
       <c r="W148" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X148">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1" t="s">
         <v>10</v>
       </c>
@@ -10986,8 +11578,12 @@
       <c r="W149" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X149">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1" t="s">
         <v>10</v>
       </c>
@@ -11057,8 +11653,12 @@
       <c r="W150" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X150">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1" t="s">
         <v>12</v>
       </c>
@@ -11126,8 +11726,12 @@
       <c r="W151" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X151">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1" t="s">
         <v>12</v>
       </c>
@@ -11195,8 +11799,12 @@
       <c r="W152" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X152">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1" t="s">
         <v>12</v>
       </c>
@@ -11264,8 +11872,12 @@
       <c r="W153" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X153">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1" t="s">
         <v>12</v>
       </c>
@@ -11333,8 +11945,12 @@
       <c r="W154" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X154">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1" t="s">
         <v>13</v>
       </c>
@@ -11404,8 +12020,12 @@
       <c r="W155" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X155">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1" t="s">
         <v>13</v>
       </c>
@@ -11475,8 +12095,12 @@
       <c r="W156" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X156">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1" t="s">
         <v>15</v>
       </c>
@@ -11544,8 +12168,12 @@
       <c r="W157" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X157">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1" t="s">
         <v>15</v>
       </c>
@@ -11613,8 +12241,12 @@
       <c r="W158" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X158">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1" t="s">
         <v>15</v>
       </c>
@@ -11682,8 +12314,12 @@
       <c r="W159" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X159">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1" t="s">
         <v>15</v>
       </c>
@@ -11751,8 +12387,12 @@
       <c r="W160" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X160">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1" t="s">
         <v>15</v>
       </c>
@@ -11820,8 +12460,12 @@
       <c r="W161" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X161">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1" t="s">
         <v>15</v>
       </c>
@@ -11889,8 +12533,12 @@
       <c r="W162" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X162">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1" t="s">
         <v>15</v>
       </c>
@@ -11958,8 +12606,12 @@
       <c r="W163" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X163">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1" t="s">
         <v>15</v>
       </c>
@@ -12027,8 +12679,12 @@
       <c r="W164" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X164">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1" t="s">
         <v>15</v>
       </c>
@@ -12096,8 +12752,12 @@
       <c r="W165" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X165">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1" t="s">
         <v>15</v>
       </c>
@@ -12165,8 +12825,12 @@
       <c r="W166" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X166">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1" t="s">
         <v>15</v>
       </c>
@@ -12234,8 +12898,12 @@
       <c r="W167" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X167">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1" t="s">
         <v>15</v>
       </c>
@@ -12303,8 +12971,12 @@
       <c r="W168" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X168">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1" t="s">
         <v>15</v>
       </c>
@@ -12372,8 +13044,12 @@
       <c r="W169" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X169">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1" t="s">
         <v>15</v>
       </c>
@@ -12441,8 +13117,12 @@
       <c r="W170" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X170">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1" t="s">
         <v>15</v>
       </c>
@@ -12510,8 +13190,12 @@
       <c r="W171" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X171">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1" t="s">
         <v>15</v>
       </c>
@@ -12579,8 +13263,12 @@
       <c r="W172" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X172">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1" t="s">
         <v>15</v>
       </c>
@@ -12648,8 +13336,12 @@
       <c r="W173" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X173">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1" t="s">
         <v>15</v>
       </c>
@@ -12717,8 +13409,12 @@
       <c r="W174" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X174">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1" t="s">
         <v>15</v>
       </c>
@@ -12786,8 +13482,12 @@
       <c r="W175" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X175">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1" t="s">
         <v>15</v>
       </c>
@@ -12855,8 +13555,12 @@
       <c r="W176" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X176">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1" t="s">
         <v>15</v>
       </c>
@@ -12924,8 +13628,12 @@
       <c r="W177" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X177">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1" t="s">
         <v>15</v>
       </c>
@@ -12993,8 +13701,12 @@
       <c r="W178" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X178">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1" t="s">
         <v>15</v>
       </c>
@@ -13062,8 +13774,12 @@
       <c r="W179" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X179">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1" t="s">
         <v>15</v>
       </c>
@@ -13131,8 +13847,12 @@
       <c r="W180" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X180">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1" t="s">
         <v>15</v>
       </c>
@@ -13200,8 +13920,12 @@
       <c r="W181" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X181">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1" t="s">
         <v>15</v>
       </c>
@@ -13269,8 +13993,12 @@
       <c r="W182" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X182">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1" t="s">
         <v>15</v>
       </c>
@@ -13338,8 +14066,12 @@
       <c r="W183" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X183">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1" t="s">
         <v>15</v>
       </c>
@@ -13407,8 +14139,12 @@
       <c r="W184" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X184">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1" t="s">
         <v>15</v>
       </c>
@@ -13476,8 +14212,12 @@
       <c r="W185" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X185">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1" t="s">
         <v>15</v>
       </c>
@@ -13545,8 +14285,12 @@
       <c r="W186" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X186">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1" t="s">
         <v>15</v>
       </c>
@@ -13614,8 +14358,12 @@
       <c r="W187" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X187">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1" t="s">
         <v>15</v>
       </c>
@@ -13683,8 +14431,12 @@
       <c r="W188" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X188">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1" t="s">
         <v>15</v>
       </c>
@@ -13752,8 +14504,12 @@
       <c r="W189" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X189">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1" t="s">
         <v>15</v>
       </c>
@@ -13821,8 +14577,12 @@
       <c r="W190" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X190">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1" t="s">
         <v>15</v>
       </c>
@@ -13890,8 +14650,12 @@
       <c r="W191" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X191">
+        <f t="shared" ref="X191:X254" ca="1" si="3">_xlfn.FLOOR.MATH(RAND()*3)+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1" t="s">
         <v>15</v>
       </c>
@@ -13959,8 +14723,12 @@
       <c r="W192" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X192">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1" t="s">
         <v>15</v>
       </c>
@@ -14028,8 +14796,12 @@
       <c r="W193" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X193">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1" t="s">
         <v>15</v>
       </c>
@@ -14097,8 +14869,12 @@
       <c r="W194" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X194">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1" t="s">
         <v>15</v>
       </c>
@@ -14166,8 +14942,12 @@
       <c r="W195" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X195">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1" t="s">
         <v>15</v>
       </c>
@@ -14235,8 +15015,12 @@
       <c r="W196" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X196">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1" t="s">
         <v>15</v>
       </c>
@@ -14304,8 +15088,12 @@
       <c r="W197" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X197">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1" t="s">
         <v>15</v>
       </c>
@@ -14373,8 +15161,12 @@
       <c r="W198" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X198">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1" t="s">
         <v>15</v>
       </c>
@@ -14442,8 +15234,12 @@
       <c r="W199" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X199">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1" t="s">
         <v>15</v>
       </c>
@@ -14511,8 +15307,12 @@
       <c r="W200" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X200">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1" t="s">
         <v>15</v>
       </c>
@@ -14580,8 +15380,12 @@
       <c r="W201" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X201">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1" t="s">
         <v>15</v>
       </c>
@@ -14649,8 +15453,12 @@
       <c r="W202" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X202">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="1" t="s">
         <v>15</v>
       </c>
@@ -14718,8 +15526,12 @@
       <c r="W203" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X203">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="1" t="s">
         <v>15</v>
       </c>
@@ -14787,8 +15599,12 @@
       <c r="W204" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X204">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="1" t="s">
         <v>15</v>
       </c>
@@ -14856,8 +15672,12 @@
       <c r="W205" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X205">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1" t="s">
         <v>15</v>
       </c>
@@ -14925,8 +15745,12 @@
       <c r="W206" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X206">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1" t="s">
         <v>15</v>
       </c>
@@ -14994,8 +15818,12 @@
       <c r="W207" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X207">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1" t="s">
         <v>15</v>
       </c>
@@ -15063,8 +15891,12 @@
       <c r="W208" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X208">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1" t="s">
         <v>15</v>
       </c>
@@ -15132,8 +15964,12 @@
       <c r="W209" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X209">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="1" t="s">
         <v>15</v>
       </c>
@@ -15201,8 +16037,12 @@
       <c r="W210" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X210">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="1" t="s">
         <v>15</v>
       </c>
@@ -15270,8 +16110,12 @@
       <c r="W211" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X211">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="1" t="s">
         <v>15</v>
       </c>
@@ -15339,8 +16183,12 @@
       <c r="W212" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X212">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="1" t="s">
         <v>15</v>
       </c>
@@ -15408,8 +16256,12 @@
       <c r="W213" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X213">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="1" t="s">
         <v>15</v>
       </c>
@@ -15477,8 +16329,12 @@
       <c r="W214" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X214">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="1" t="s">
         <v>15</v>
       </c>
@@ -15546,8 +16402,12 @@
       <c r="W215" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X215">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="1" t="s">
         <v>15</v>
       </c>
@@ -15615,8 +16475,12 @@
       <c r="W216" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X216">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="1" t="s">
         <v>15</v>
       </c>
@@ -15684,8 +16548,12 @@
       <c r="W217" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X217">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="1" t="s">
         <v>16</v>
       </c>
@@ -15753,8 +16621,12 @@
       <c r="W218" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X218">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="1" t="s">
         <v>16</v>
       </c>
@@ -15822,8 +16694,12 @@
       <c r="W219" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X219">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1" t="s">
         <v>16</v>
       </c>
@@ -15891,8 +16767,12 @@
       <c r="W220" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X220">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1" t="s">
         <v>16</v>
       </c>
@@ -15960,8 +16840,12 @@
       <c r="W221" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X221">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1" t="s">
         <v>16</v>
       </c>
@@ -16029,8 +16913,12 @@
       <c r="W222" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X222">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1" t="s">
         <v>16</v>
       </c>
@@ -16098,8 +16986,12 @@
       <c r="W223" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X223">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1" t="s">
         <v>16</v>
       </c>
@@ -16167,8 +17059,12 @@
       <c r="W224" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X224">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1" t="s">
         <v>16</v>
       </c>
@@ -16236,8 +17132,12 @@
       <c r="W225" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X225">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1" t="s">
         <v>16</v>
       </c>
@@ -16305,8 +17205,12 @@
       <c r="W226" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X226">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="1" t="s">
         <v>16</v>
       </c>
@@ -16374,8 +17278,12 @@
       <c r="W227" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X227">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="1" t="s">
         <v>17</v>
       </c>
@@ -16445,8 +17353,12 @@
       <c r="W228" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X228">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="1" t="s">
         <v>17</v>
       </c>
@@ -16516,8 +17428,12 @@
       <c r="W229" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X229">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="1" t="s">
         <v>17</v>
       </c>
@@ -16587,8 +17503,12 @@
       <c r="W230" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X230">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="1" t="s">
         <v>17</v>
       </c>
@@ -16658,8 +17578,12 @@
       <c r="W231" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X231">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="1" t="s">
         <v>17</v>
       </c>
@@ -16729,8 +17653,12 @@
       <c r="W232" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X232">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="1" t="s">
         <v>17</v>
       </c>
@@ -16800,8 +17728,12 @@
       <c r="W233" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X233">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="1" t="s">
         <v>17</v>
       </c>
@@ -16871,8 +17803,12 @@
       <c r="W234" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X234">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1" t="s">
         <v>17</v>
       </c>
@@ -16942,8 +17878,12 @@
       <c r="W235" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X235">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1" t="s">
         <v>17</v>
       </c>
@@ -17013,8 +17953,12 @@
       <c r="W236" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X236">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1" t="s">
         <v>17</v>
       </c>
@@ -17084,8 +18028,12 @@
       <c r="W237" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X237">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="1" t="s">
         <v>17</v>
       </c>
@@ -17155,8 +18103,12 @@
       <c r="W238" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X238">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="1" t="s">
         <v>17</v>
       </c>
@@ -17226,8 +18178,12 @@
       <c r="W239" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X239">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="1" t="s">
         <v>17</v>
       </c>
@@ -17297,8 +18253,12 @@
       <c r="W240" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X240">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="1" t="s">
         <v>17</v>
       </c>
@@ -17368,8 +18328,12 @@
       <c r="W241" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X241">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="1" t="s">
         <v>17</v>
       </c>
@@ -17439,8 +18403,12 @@
       <c r="W242" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X242">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1" t="s">
         <v>17</v>
       </c>
@@ -17510,8 +18478,12 @@
       <c r="W243" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X243">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1" t="s">
         <v>17</v>
       </c>
@@ -17581,8 +18553,12 @@
       <c r="W244" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X244">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1" t="s">
         <v>17</v>
       </c>
@@ -17652,8 +18628,12 @@
       <c r="W245" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X245">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1" t="s">
         <v>19</v>
       </c>
@@ -17723,8 +18703,12 @@
       <c r="W246" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X246">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="1" t="s">
         <v>19</v>
       </c>
@@ -17794,8 +18778,12 @@
       <c r="W247" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X247">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="1" t="s">
         <v>19</v>
       </c>
@@ -17865,8 +18853,12 @@
       <c r="W248" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X248">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="1" t="s">
         <v>19</v>
       </c>
@@ -17936,8 +18928,12 @@
       <c r="W249" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X249">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="1" t="s">
         <v>19</v>
       </c>
@@ -18007,8 +19003,12 @@
       <c r="W250" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X250">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="1" t="s">
         <v>19</v>
       </c>
@@ -18078,8 +19078,12 @@
       <c r="W251" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X251">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="1" t="s">
         <v>19</v>
       </c>
@@ -18149,8 +19153,12 @@
       <c r="W252" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X252">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1" t="s">
         <v>19</v>
       </c>
@@ -18220,8 +19228,12 @@
       <c r="W253" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X253">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="1" t="s">
         <v>19</v>
       </c>
@@ -18291,8 +19303,12 @@
       <c r="W254" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X254">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="1" t="s">
         <v>19</v>
       </c>
@@ -18362,8 +19378,12 @@
       <c r="W255" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X255">
+        <f t="shared" ref="X255:X318" ca="1" si="4">_xlfn.FLOOR.MATH(RAND()*3)+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="1" t="s">
         <v>19</v>
       </c>
@@ -18433,8 +19453,12 @@
       <c r="W256" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X256">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="1" t="s">
         <v>19</v>
       </c>
@@ -18504,8 +19528,12 @@
       <c r="W257" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X257">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="1" t="s">
         <v>19</v>
       </c>
@@ -18575,8 +19603,12 @@
       <c r="W258" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X258">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="1" t="s">
         <v>19</v>
       </c>
@@ -18646,8 +19678,12 @@
       <c r="W259" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X259">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="1" t="s">
         <v>19</v>
       </c>
@@ -18717,8 +19753,12 @@
       <c r="W260" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X260">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="1" t="s">
         <v>19</v>
       </c>
@@ -18788,8 +19828,12 @@
       <c r="W261" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X261">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="1" t="s">
         <v>19</v>
       </c>
@@ -18859,8 +19903,12 @@
       <c r="W262" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X262">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="1" t="s">
         <v>19</v>
       </c>
@@ -18930,8 +19978,12 @@
       <c r="W263" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="264" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X263">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="1" t="s">
         <v>19</v>
       </c>
@@ -19001,8 +20053,12 @@
       <c r="W264" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X264">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="1" t="s">
         <v>19</v>
       </c>
@@ -19072,8 +20128,12 @@
       <c r="W265" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X265">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="1" t="s">
         <v>19</v>
       </c>
@@ -19143,8 +20203,12 @@
       <c r="W266" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X266">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="1" t="s">
         <v>19</v>
       </c>
@@ -19214,8 +20278,12 @@
       <c r="W267" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X267">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="1" t="s">
         <v>19</v>
       </c>
@@ -19285,8 +20353,12 @@
       <c r="W268" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X268">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="1" t="s">
         <v>21</v>
       </c>
@@ -19356,8 +20428,12 @@
       <c r="W269" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X269">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="1" t="s">
         <v>21</v>
       </c>
@@ -19427,8 +20503,12 @@
       <c r="W270" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X270">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="1" t="s">
         <v>21</v>
       </c>
@@ -19498,8 +20578,12 @@
       <c r="W271" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="272" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X271">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="1" t="s">
         <v>21</v>
       </c>
@@ -19569,8 +20653,12 @@
       <c r="W272" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X272">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="1" t="s">
         <v>21</v>
       </c>
@@ -19640,8 +20728,12 @@
       <c r="W273" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X273">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="1" t="s">
         <v>21</v>
       </c>
@@ -19711,8 +20803,12 @@
       <c r="W274" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="275" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X274">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="1" t="s">
         <v>21</v>
       </c>
@@ -19782,8 +20878,12 @@
       <c r="W275" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X275">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="1" t="s">
         <v>21</v>
       </c>
@@ -19853,8 +20953,12 @@
       <c r="W276" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="277" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X276">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="1" t="s">
         <v>21</v>
       </c>
@@ -19924,8 +21028,12 @@
       <c r="W277" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="278" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X277">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="1" t="s">
         <v>21</v>
       </c>
@@ -19995,8 +21103,12 @@
       <c r="W278" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="279" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X278">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="1" t="s">
         <v>21</v>
       </c>
@@ -20066,8 +21178,12 @@
       <c r="W279" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="280" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X279">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="1" t="s">
         <v>21</v>
       </c>
@@ -20137,8 +21253,12 @@
       <c r="W280" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="281" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X280">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="1" t="s">
         <v>21</v>
       </c>
@@ -20208,8 +21328,12 @@
       <c r="W281" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X281">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="1" t="s">
         <v>21</v>
       </c>
@@ -20279,8 +21403,12 @@
       <c r="W282" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="283" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X282">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="1" t="s">
         <v>21</v>
       </c>
@@ -20350,8 +21478,12 @@
       <c r="W283" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="284" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X283">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="1" t="s">
         <v>21</v>
       </c>
@@ -20421,8 +21553,12 @@
       <c r="W284" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="285" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X284">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="1" t="s">
         <v>21</v>
       </c>
@@ -20492,8 +21628,12 @@
       <c r="W285" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X285">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="1" t="s">
         <v>21</v>
       </c>
@@ -20563,8 +21703,12 @@
       <c r="W286" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="287" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X286">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="1" t="s">
         <v>21</v>
       </c>
@@ -20634,8 +21778,12 @@
       <c r="W287" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="288" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X287">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="1" t="s">
         <v>21</v>
       </c>
@@ -20705,8 +21853,12 @@
       <c r="W288" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="289" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X288">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="1" t="s">
         <v>21</v>
       </c>
@@ -20776,8 +21928,12 @@
       <c r="W289" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="290" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X289">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="1" t="s">
         <v>21</v>
       </c>
@@ -20847,8 +22003,12 @@
       <c r="W290" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="291" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X290">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="1" t="s">
         <v>21</v>
       </c>
@@ -20918,8 +22078,12 @@
       <c r="W291" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="292" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X291">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="1" t="s">
         <v>21</v>
       </c>
@@ -20989,8 +22153,12 @@
       <c r="W292" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="293" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X292">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="1" t="s">
         <v>21</v>
       </c>
@@ -21060,8 +22228,12 @@
       <c r="W293" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="294" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X293">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="1" t="s">
         <v>21</v>
       </c>
@@ -21131,8 +22303,12 @@
       <c r="W294" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="295" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X294">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="1" t="s">
         <v>21</v>
       </c>
@@ -21202,8 +22378,12 @@
       <c r="W295" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="296" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X295">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="1" t="s">
         <v>21</v>
       </c>
@@ -21273,8 +22453,12 @@
       <c r="W296" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="297" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X296">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="1" t="s">
         <v>21</v>
       </c>
@@ -21344,8 +22528,12 @@
       <c r="W297" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="298" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X297">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="1" t="s">
         <v>21</v>
       </c>
@@ -21415,8 +22603,12 @@
       <c r="W298" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="299" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X298">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="1" t="s">
         <v>21</v>
       </c>
@@ -21486,8 +22678,12 @@
       <c r="W299" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="300" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X299">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="1" t="s">
         <v>21</v>
       </c>
@@ -21557,8 +22753,12 @@
       <c r="W300" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="301" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X300">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="1" t="s">
         <v>21</v>
       </c>
@@ -21628,8 +22828,12 @@
       <c r="W301" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="302" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X301">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="1" t="s">
         <v>21</v>
       </c>
@@ -21699,8 +22903,12 @@
       <c r="W302" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="303" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X302">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="1" t="s">
         <v>21</v>
       </c>
@@ -21770,8 +22978,12 @@
       <c r="W303" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="304" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X303">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="1" t="s">
         <v>21</v>
       </c>
@@ -21841,8 +23053,12 @@
       <c r="W304" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="305" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X304">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="1" t="s">
         <v>21</v>
       </c>
@@ -21912,8 +23128,12 @@
       <c r="W305" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="306" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X305">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="1" t="s">
         <v>21</v>
       </c>
@@ -21983,8 +23203,12 @@
       <c r="W306" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="307" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X306">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="1" t="s">
         <v>21</v>
       </c>
@@ -22054,8 +23278,12 @@
       <c r="W307" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="308" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X307">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="1" t="s">
         <v>21</v>
       </c>
@@ -22125,8 +23353,12 @@
       <c r="W308" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="309" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X308">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="1" t="s">
         <v>21</v>
       </c>
@@ -22196,8 +23428,12 @@
       <c r="W309" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="310" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X309">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="1" t="s">
         <v>21</v>
       </c>
@@ -22267,8 +23503,12 @@
       <c r="W310" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="311" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X310">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="1" t="s">
         <v>21</v>
       </c>
@@ -22338,8 +23578,12 @@
       <c r="W311" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="312" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X311">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="1" t="s">
         <v>21</v>
       </c>
@@ -22409,8 +23653,12 @@
       <c r="W312" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="313" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X312">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="1" t="s">
         <v>21</v>
       </c>
@@ -22480,8 +23728,12 @@
       <c r="W313" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="314" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X313">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="1" t="s">
         <v>21</v>
       </c>
@@ -22551,8 +23803,12 @@
       <c r="W314" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="315" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X314">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="1" t="s">
         <v>21</v>
       </c>
@@ -22622,8 +23878,12 @@
       <c r="W315" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="316" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X315">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="1" t="s">
         <v>24</v>
       </c>
@@ -22693,8 +23953,12 @@
       <c r="W316" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="317" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X316">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="1" t="s">
         <v>24</v>
       </c>
@@ -22764,8 +24028,12 @@
       <c r="W317" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="318" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X317">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="1" t="s">
         <v>24</v>
       </c>
@@ -22835,8 +24103,12 @@
       <c r="W318" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="319" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X318">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="1" t="s">
         <v>24</v>
       </c>
@@ -22906,8 +24178,12 @@
       <c r="W319" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="320" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X319">
+        <f t="shared" ref="X319:X382" ca="1" si="5">_xlfn.FLOOR.MATH(RAND()*3)+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="1" t="s">
         <v>24</v>
       </c>
@@ -22977,8 +24253,12 @@
       <c r="W320" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="321" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X320">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="1" t="s">
         <v>24</v>
       </c>
@@ -23048,8 +24328,12 @@
       <c r="W321" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="322" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X321">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="1" t="s">
         <v>24</v>
       </c>
@@ -23119,8 +24403,12 @@
       <c r="W322" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="323" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X322">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="1" t="s">
         <v>24</v>
       </c>
@@ -23190,8 +24478,12 @@
       <c r="W323" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="324" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X323">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="1" t="s">
         <v>25</v>
       </c>
@@ -23261,8 +24553,12 @@
       <c r="W324" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="325" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X324">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="1" t="s">
         <v>25</v>
       </c>
@@ -23332,8 +24628,12 @@
       <c r="W325" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="326" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X325">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="1" t="s">
         <v>25</v>
       </c>
@@ -23403,8 +24703,12 @@
       <c r="W326" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="327" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X326">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="1" t="s">
         <v>25</v>
       </c>
@@ -23474,8 +24778,12 @@
       <c r="W327" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="328" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X327">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="1" t="s">
         <v>25</v>
       </c>
@@ -23545,8 +24853,12 @@
       <c r="W328" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="329" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X328">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="1" t="s">
         <v>25</v>
       </c>
@@ -23616,8 +24928,12 @@
       <c r="W329" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="330" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X329">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="1" t="s">
         <v>25</v>
       </c>
@@ -23687,8 +25003,12 @@
       <c r="W330" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="331" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X330">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="1" t="s">
         <v>25</v>
       </c>
@@ -23758,8 +25078,12 @@
       <c r="W331" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="332" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X331">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="1" t="s">
         <v>25</v>
       </c>
@@ -23829,8 +25153,12 @@
       <c r="W332" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="333" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X332">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="1" t="s">
         <v>25</v>
       </c>
@@ -23900,8 +25228,12 @@
       <c r="W333" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="334" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X333">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="1" t="s">
         <v>25</v>
       </c>
@@ -23971,8 +25303,12 @@
       <c r="W334" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="335" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X334">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="1" t="s">
         <v>25</v>
       </c>
@@ -24042,8 +25378,12 @@
       <c r="W335" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="336" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X335">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="1" t="s">
         <v>25</v>
       </c>
@@ -24113,8 +25453,12 @@
       <c r="W336" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="337" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X336">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="1" t="s">
         <v>25</v>
       </c>
@@ -24184,8 +25528,12 @@
       <c r="W337" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="338" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X337">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="1" t="s">
         <v>25</v>
       </c>
@@ -24255,8 +25603,12 @@
       <c r="W338" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="339" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X338">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="1" t="s">
         <v>25</v>
       </c>
@@ -24326,8 +25678,12 @@
       <c r="W339" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="340" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X339">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="1" t="s">
         <v>25</v>
       </c>
@@ -24397,8 +25753,12 @@
       <c r="W340" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="341" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X340">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="1" t="s">
         <v>27</v>
       </c>
@@ -24468,8 +25828,12 @@
       <c r="W341" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="342" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X341">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="1" t="s">
         <v>27</v>
       </c>
@@ -24539,8 +25903,12 @@
       <c r="W342" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="343" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X342">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="1" t="s">
         <v>27</v>
       </c>
@@ -24610,8 +25978,12 @@
       <c r="W343" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="344" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X343">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="1" t="s">
         <v>27</v>
       </c>
@@ -24681,8 +26053,12 @@
       <c r="W344" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="345" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X344">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="1" t="s">
         <v>28</v>
       </c>
@@ -24752,8 +26128,12 @@
       <c r="W345" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="346" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X345">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="1" t="s">
         <v>28</v>
       </c>
@@ -24823,8 +26203,12 @@
       <c r="W346" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="347" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X346">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="1" t="s">
         <v>28</v>
       </c>
@@ -24894,8 +26278,12 @@
       <c r="W347" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="348" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X347">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="1" t="s">
         <v>28</v>
       </c>
@@ -24965,8 +26353,12 @@
       <c r="W348" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="349" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X348">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="1" t="s">
         <v>28</v>
       </c>
@@ -25036,8 +26428,12 @@
       <c r="W349" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="350" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X349">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="1" t="s">
         <v>28</v>
       </c>
@@ -25107,8 +26503,12 @@
       <c r="W350" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="351" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X350">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="1" t="s">
         <v>28</v>
       </c>
@@ -25178,8 +26578,12 @@
       <c r="W351" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="352" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X351">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="1" t="s">
         <v>30</v>
       </c>
@@ -25249,8 +26653,12 @@
       <c r="W352" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="353" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X352">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="1" t="s">
         <v>30</v>
       </c>
@@ -25320,8 +26728,12 @@
       <c r="W353" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="354" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X353">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="1" t="s">
         <v>30</v>
       </c>
@@ -25391,8 +26803,12 @@
       <c r="W354" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="355" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X354">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="1" t="s">
         <v>30</v>
       </c>
@@ -25462,8 +26878,12 @@
       <c r="W355" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="356" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X355">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="1" t="s">
         <v>30</v>
       </c>
@@ -25533,8 +26953,12 @@
       <c r="W356" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="357" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X356">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="1" t="s">
         <v>30</v>
       </c>
@@ -25604,8 +27028,12 @@
       <c r="W357" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="358" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X357">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="1" t="s">
         <v>30</v>
       </c>
@@ -25675,8 +27103,12 @@
       <c r="W358" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="359" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X358">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="1" t="s">
         <v>30</v>
       </c>
@@ -25746,8 +27178,12 @@
       <c r="W359" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="360" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X359">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="1" t="s">
         <v>31</v>
       </c>
@@ -25817,8 +27253,12 @@
       <c r="W360" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="361" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X360">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="1" t="s">
         <v>31</v>
       </c>
@@ -25888,8 +27328,12 @@
       <c r="W361" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="362" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X361">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="1" t="s">
         <v>31</v>
       </c>
@@ -25959,8 +27403,12 @@
       <c r="W362" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="363" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X362">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="1" t="s">
         <v>31</v>
       </c>
@@ -26030,8 +27478,12 @@
       <c r="W363" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="364" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X363">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="1" t="s">
         <v>31</v>
       </c>
@@ -26101,8 +27553,12 @@
       <c r="W364" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="365" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X364">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="1" t="s">
         <v>31</v>
       </c>
@@ -26172,8 +27628,12 @@
       <c r="W365" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="366" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X365">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="1" t="s">
         <v>31</v>
       </c>
@@ -26243,8 +27703,12 @@
       <c r="W366" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="367" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X366">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="1" t="s">
         <v>31</v>
       </c>
@@ -26314,8 +27778,12 @@
       <c r="W367" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="368" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X367">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="1" t="s">
         <v>31</v>
       </c>
@@ -26385,8 +27853,12 @@
       <c r="W368" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="369" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X368">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="1" t="s">
         <v>31</v>
       </c>
@@ -26456,8 +27928,12 @@
       <c r="W369" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="370" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X369">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="1" t="s">
         <v>31</v>
       </c>
@@ -26527,8 +28003,12 @@
       <c r="W370" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="371" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X370">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="1" t="s">
         <v>31</v>
       </c>
@@ -26598,8 +28078,12 @@
       <c r="W371" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="372" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X371">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="1" t="s">
         <v>31</v>
       </c>
@@ -26669,8 +28153,12 @@
       <c r="W372" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="373" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X372">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="1" t="s">
         <v>31</v>
       </c>
@@ -26740,8 +28228,12 @@
       <c r="W373" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="374" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X373">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="1" t="s">
         <v>31</v>
       </c>
@@ -26811,8 +28303,12 @@
       <c r="W374" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="375" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X374">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="1" t="s">
         <v>31</v>
       </c>
@@ -26882,8 +28378,12 @@
       <c r="W375" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="376" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X375">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="1" t="s">
         <v>31</v>
       </c>
@@ -26953,8 +28453,12 @@
       <c r="W376" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="377" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X376">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="1" t="s">
         <v>31</v>
       </c>
@@ -27024,8 +28528,12 @@
       <c r="W377" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="378" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X377">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="1" t="s">
         <v>31</v>
       </c>
@@ -27095,8 +28603,12 @@
       <c r="W378" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="379" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X378">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="1" t="s">
         <v>32</v>
       </c>
@@ -27166,8 +28678,12 @@
       <c r="W379" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="380" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X379">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="1" t="s">
         <v>34</v>
       </c>
@@ -27237,8 +28753,12 @@
       <c r="W380" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="381" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X380">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="1" t="s">
         <v>34</v>
       </c>
@@ -27308,8 +28828,12 @@
       <c r="W381" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="382" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X381">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="1" t="s">
         <v>34</v>
       </c>
@@ -27379,8 +28903,12 @@
       <c r="W382" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="383" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X382">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="1" t="s">
         <v>34</v>
       </c>
@@ -27450,8 +28978,12 @@
       <c r="W383" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="384" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X383">
+        <f t="shared" ref="X383:X446" ca="1" si="6">_xlfn.FLOOR.MATH(RAND()*3)+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="1" t="s">
         <v>36</v>
       </c>
@@ -27519,8 +29051,12 @@
       <c r="W384" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="385" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X384">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="1" t="s">
         <v>36</v>
       </c>
@@ -27588,8 +29124,12 @@
       <c r="W385" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="386" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X385">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="1" t="s">
         <v>37</v>
       </c>
@@ -27659,8 +29199,12 @@
       <c r="W386" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="387" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X386">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="1" t="s">
         <v>37</v>
       </c>
@@ -27730,8 +29274,12 @@
       <c r="W387" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="388" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X387">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="1" t="s">
         <v>37</v>
       </c>
@@ -27801,8 +29349,12 @@
       <c r="W388" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="389" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X388">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="1" t="s">
         <v>37</v>
       </c>
@@ -27872,8 +29424,12 @@
       <c r="W389" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="390" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X389">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="1" t="s">
         <v>38</v>
       </c>
@@ -27943,8 +29499,12 @@
       <c r="W390" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="391" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X390">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="1" t="s">
         <v>38</v>
       </c>
@@ -28014,8 +29574,12 @@
       <c r="W391" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="392" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X391">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="1" t="s">
         <v>38</v>
       </c>
@@ -28085,8 +29649,12 @@
       <c r="W392" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="393" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X392">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="1" t="s">
         <v>38</v>
       </c>
@@ -28156,8 +29724,12 @@
       <c r="W393" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="394" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X393">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="1" t="s">
         <v>38</v>
       </c>
@@ -28227,8 +29799,12 @@
       <c r="W394" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="395" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X394">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="1" t="s">
         <v>38</v>
       </c>
@@ -28298,8 +29874,12 @@
       <c r="W395" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="396" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X395">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="1" t="s">
         <v>38</v>
       </c>
@@ -28369,8 +29949,12 @@
       <c r="W396" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="397" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X396">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="1" t="s">
         <v>38</v>
       </c>
@@ -28440,8 +30024,12 @@
       <c r="W397" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="398" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X397">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" s="1" t="s">
         <v>38</v>
       </c>
@@ -28511,8 +30099,12 @@
       <c r="W398" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="399" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X398">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" s="1" t="s">
         <v>38</v>
       </c>
@@ -28582,8 +30174,12 @@
       <c r="W399" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="400" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X399">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" s="1" t="s">
         <v>38</v>
       </c>
@@ -28653,8 +30249,12 @@
       <c r="W400" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="401" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X400">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" s="1" t="s">
         <v>38</v>
       </c>
@@ -28724,8 +30324,12 @@
       <c r="W401" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="402" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X401">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" s="1" t="s">
         <v>38</v>
       </c>
@@ -28795,8 +30399,12 @@
       <c r="W402" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="403" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X402">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" s="1" t="s">
         <v>38</v>
       </c>
@@ -28866,8 +30474,12 @@
       <c r="W403" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="404" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X403">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" s="1" t="s">
         <v>38</v>
       </c>
@@ -28937,8 +30549,12 @@
       <c r="W404" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="405" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X404">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" s="1" t="s">
         <v>38</v>
       </c>
@@ -29008,8 +30624,12 @@
       <c r="W405" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="406" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X405">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" s="1" t="s">
         <v>38</v>
       </c>
@@ -29079,8 +30699,12 @@
       <c r="W406" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="407" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X406">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" s="1" t="s">
         <v>38</v>
       </c>
@@ -29150,8 +30774,12 @@
       <c r="W407" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="408" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X407">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" s="1" t="s">
         <v>38</v>
       </c>
@@ -29221,8 +30849,12 @@
       <c r="W408" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="409" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X408">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" s="1" t="s">
         <v>38</v>
       </c>
@@ -29292,8 +30924,12 @@
       <c r="W409" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="410" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X409">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" s="1" t="s">
         <v>40</v>
       </c>
@@ -29361,8 +30997,12 @@
       <c r="W410" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="411" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X410">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="1" t="s">
         <v>40</v>
       </c>
@@ -29430,8 +31070,12 @@
       <c r="W411" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="412" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X411">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" s="1" t="s">
         <v>40</v>
       </c>
@@ -29499,8 +31143,12 @@
       <c r="W412" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="413" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X412">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" s="1" t="s">
         <v>40</v>
       </c>
@@ -29568,8 +31216,12 @@
       <c r="W413" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="414" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X413">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" s="1" t="s">
         <v>40</v>
       </c>
@@ -29637,8 +31289,12 @@
       <c r="W414" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="415" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X414">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" s="1" t="s">
         <v>40</v>
       </c>
@@ -29706,8 +31362,12 @@
       <c r="W415" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="416" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X415">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" s="1" t="s">
         <v>41</v>
       </c>
@@ -29775,8 +31435,12 @@
       <c r="W416" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="417" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X416">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" s="1" t="s">
         <v>41</v>
       </c>
@@ -29844,8 +31508,12 @@
       <c r="W417" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="418" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X417">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" s="1" t="s">
         <v>41</v>
       </c>
@@ -29913,8 +31581,12 @@
       <c r="W418" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="419" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X418">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" s="1" t="s">
         <v>41</v>
       </c>
@@ -29982,8 +31654,12 @@
       <c r="W419" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="420" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X419">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" s="1" t="s">
         <v>41</v>
       </c>
@@ -30051,8 +31727,12 @@
       <c r="W420" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="421" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X420">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="1" t="s">
         <v>42</v>
       </c>
@@ -30120,8 +31800,12 @@
       <c r="W421" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="422" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X421">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" s="1" t="s">
         <v>42</v>
       </c>
@@ -30189,8 +31873,12 @@
       <c r="W422" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="423" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X422">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" s="1" t="s">
         <v>42</v>
       </c>
@@ -30258,8 +31946,12 @@
       <c r="W423" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="424" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X423">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" s="1" t="s">
         <v>42</v>
       </c>
@@ -30327,8 +32019,12 @@
       <c r="W424" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="425" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X424">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" s="1" t="s">
         <v>42</v>
       </c>
@@ -30396,8 +32092,12 @@
       <c r="W425" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="426" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X425">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" s="1" t="s">
         <v>43</v>
       </c>
@@ -30465,8 +32165,12 @@
       <c r="W426" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="427" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X426">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" s="1" t="s">
         <v>43</v>
       </c>
@@ -30534,8 +32238,12 @@
       <c r="W427" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="428" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X427">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" s="1" t="s">
         <v>43</v>
       </c>
@@ -30603,8 +32311,12 @@
       <c r="W428" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="429" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X428">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" s="1" t="s">
         <v>43</v>
       </c>
@@ -30672,8 +32384,12 @@
       <c r="W429" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="430" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X429">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" s="1" t="s">
         <v>43</v>
       </c>
@@ -30741,8 +32457,12 @@
       <c r="W430" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="431" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X430">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" s="1" t="s">
         <v>43</v>
       </c>
@@ -30810,8 +32530,12 @@
       <c r="W431" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="432" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X431">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" s="1" t="s">
         <v>43</v>
       </c>
@@ -30879,8 +32603,12 @@
       <c r="W432" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="433" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X432">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="1" t="s">
         <v>43</v>
       </c>
@@ -30948,8 +32676,12 @@
       <c r="W433" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="434" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X433">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" s="1" t="s">
         <v>43</v>
       </c>
@@ -31017,8 +32749,12 @@
       <c r="W434" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="435" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X434">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" s="1" t="s">
         <v>43</v>
       </c>
@@ -31086,8 +32822,12 @@
       <c r="W435" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="436" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X435">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" s="1" t="s">
         <v>43</v>
       </c>
@@ -31155,8 +32895,12 @@
       <c r="W436" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="437" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X436">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" s="1" t="s">
         <v>43</v>
       </c>
@@ -31224,8 +32968,12 @@
       <c r="W437" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="438" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X437">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" s="1" t="s">
         <v>44</v>
       </c>
@@ -31293,8 +33041,12 @@
       <c r="W438" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="439" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X438">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" s="1" t="s">
         <v>44</v>
       </c>
@@ -31362,8 +33114,12 @@
       <c r="W439" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="440" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X439">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" s="1" t="s">
         <v>44</v>
       </c>
@@ -31431,8 +33187,12 @@
       <c r="W440" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="441" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X440">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" s="1" t="s">
         <v>44</v>
       </c>
@@ -31500,8 +33260,12 @@
       <c r="W441" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="442" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X441">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" s="1" t="s">
         <v>44</v>
       </c>
@@ -31569,8 +33333,12 @@
       <c r="W442" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="443" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X442">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" s="1" t="s">
         <v>44</v>
       </c>
@@ -31638,8 +33406,12 @@
       <c r="W443" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="444" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X443">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" s="1" t="s">
         <v>45</v>
       </c>
@@ -31709,8 +33481,12 @@
       <c r="W444" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="445" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X444">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" s="1" t="s">
         <v>45</v>
       </c>
@@ -31780,8 +33556,12 @@
       <c r="W445" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="446" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X445">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" s="1" t="s">
         <v>46</v>
       </c>
@@ -31851,8 +33631,12 @@
       <c r="W446" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="447" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X446">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" s="1" t="s">
         <v>46</v>
       </c>
@@ -31922,8 +33706,12 @@
       <c r="W447" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="448" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X447">
+        <f t="shared" ref="X447:X479" ca="1" si="7">_xlfn.FLOOR.MATH(RAND()*3)+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" s="1" t="s">
         <v>47</v>
       </c>
@@ -31993,8 +33781,12 @@
       <c r="W448" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="449" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X448">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" s="1" t="s">
         <v>47</v>
       </c>
@@ -32064,8 +33856,12 @@
       <c r="W449" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="450" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X449">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" s="1" t="s">
         <v>48</v>
       </c>
@@ -32135,8 +33931,12 @@
       <c r="W450" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="451" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X450">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" s="1" t="s">
         <v>48</v>
       </c>
@@ -32206,8 +34006,12 @@
       <c r="W451" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="452" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X451">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" s="1" t="s">
         <v>49</v>
       </c>
@@ -32277,8 +34081,12 @@
       <c r="W452" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="453" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X452">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" s="1" t="s">
         <v>49</v>
       </c>
@@ -32348,8 +34156,12 @@
       <c r="W453" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="454" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X453">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" s="1" t="s">
         <v>50</v>
       </c>
@@ -32419,8 +34231,12 @@
       <c r="W454" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="455" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X454">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" s="1" t="s">
         <v>50</v>
       </c>
@@ -32490,8 +34306,12 @@
       <c r="W455" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="456" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X455">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" s="1" t="s">
         <v>51</v>
       </c>
@@ -32561,8 +34381,12 @@
       <c r="W456" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="457" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X456">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" s="1" t="s">
         <v>52</v>
       </c>
@@ -32632,8 +34456,12 @@
       <c r="W457" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="458" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X457">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" s="1" t="s">
         <v>52</v>
       </c>
@@ -32703,8 +34531,12 @@
       <c r="W458" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="459" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X458">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" s="1" t="s">
         <v>52</v>
       </c>
@@ -32774,8 +34606,12 @@
       <c r="W459" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="460" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X459">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" s="1" t="s">
         <v>53</v>
       </c>
@@ -32843,8 +34679,12 @@
       <c r="W460" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="461" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X460">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" s="1" t="s">
         <v>53</v>
       </c>
@@ -32912,8 +34752,12 @@
       <c r="W461" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="462" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X461">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" s="1" t="s">
         <v>53</v>
       </c>
@@ -32981,8 +34825,12 @@
       <c r="W462" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="463" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X462">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" s="1" t="s">
         <v>53</v>
       </c>
@@ -33050,8 +34898,12 @@
       <c r="W463" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="464" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X463">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" s="1" t="s">
         <v>53</v>
       </c>
@@ -33119,8 +34971,12 @@
       <c r="W464" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="465" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X464">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" s="1" t="s">
         <v>53</v>
       </c>
@@ -33188,8 +35044,12 @@
       <c r="W465" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="466" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X465">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" s="1" t="s">
         <v>54</v>
       </c>
@@ -33257,8 +35117,12 @@
       <c r="W466" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="467" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X466">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" s="1" t="s">
         <v>54</v>
       </c>
@@ -33326,8 +35190,12 @@
       <c r="W467" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="468" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X467">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" s="1" t="s">
         <v>55</v>
       </c>
@@ -33397,8 +35265,12 @@
       <c r="W468" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="469" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X468">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" s="1" t="s">
         <v>55</v>
       </c>
@@ -33468,8 +35340,12 @@
       <c r="W469" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="470" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X469">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" s="1" t="s">
         <v>56</v>
       </c>
@@ -33539,8 +35415,12 @@
       <c r="W470" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="471" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X470">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" s="1" t="s">
         <v>56</v>
       </c>
@@ -33610,8 +35490,12 @@
       <c r="W471" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="472" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X471">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="472" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" s="1" t="s">
         <v>56</v>
       </c>
@@ -33681,8 +35565,12 @@
       <c r="W472" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="473" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X472">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" s="1" t="s">
         <v>58</v>
       </c>
@@ -33752,8 +35640,12 @@
       <c r="W473" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="474" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X473">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" s="1" t="s">
         <v>58</v>
       </c>
@@ -33823,8 +35715,12 @@
       <c r="W474" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="475" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X474">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" s="1" t="s">
         <v>58</v>
       </c>
@@ -33894,8 +35790,12 @@
       <c r="W475" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="476" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X475">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" s="1" t="s">
         <v>59</v>
       </c>
@@ -33965,8 +35865,12 @@
       <c r="W476" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="477" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X476">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" s="1" t="s">
         <v>60</v>
       </c>
@@ -34036,8 +35940,12 @@
       <c r="W477" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="478" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X477">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="478" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" s="1" t="s">
         <v>61</v>
       </c>
@@ -34107,8 +36015,12 @@
       <c r="W478" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="479" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X478">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" s="1" t="s">
         <v>62</v>
       </c>
@@ -34177,6 +36089,10 @@
       </c>
       <c r="W479" s="1">
         <v>65</v>
+      </c>
+      <c r="X479">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -34189,19 +36105,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.68359375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -34218,7 +36134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -34235,7 +36151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -34252,7 +36168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -34269,7 +36185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -34286,7 +36202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -34303,7 +36219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -34320,7 +36236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -34337,7 +36253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -34354,7 +36270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -34371,7 +36287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -34388,7 +36304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -34405,7 +36321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -34422,7 +36338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -34439,7 +36355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -34456,7 +36372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -34473,7 +36389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -34490,7 +36406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -34507,7 +36423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -34524,7 +36440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -34541,7 +36457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -34558,7 +36474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -34575,7 +36491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -34592,7 +36508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -34609,7 +36525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -34626,7 +36542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -34643,7 +36559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -34660,7 +36576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -34677,7 +36593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -34694,7 +36610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -34711,7 +36627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -34728,7 +36644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -34745,7 +36661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -34762,7 +36678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -34779,7 +36695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -34796,7 +36712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -34813,7 +36729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -34830,7 +36746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -34847,7 +36763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -34864,7 +36780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -34881,7 +36797,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -34898,7 +36814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -34915,7 +36831,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -34932,7 +36848,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -34949,7 +36865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -34966,7 +36882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -34983,7 +36899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -35000,7 +36916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -35017,7 +36933,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -35034,7 +36950,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -35051,7 +36967,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -35068,7 +36984,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -35085,7 +37001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -35102,7 +37018,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -35119,7 +37035,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
         <v>6</v>
       </c>
@@ -35136,7 +37052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
         <v>6</v>
       </c>
@@ -35153,7 +37069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>6</v>
       </c>
@@ -35170,7 +37086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
@@ -35187,7 +37103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
         <v>6</v>
       </c>
@@ -35204,7 +37120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
@@ -35221,7 +37137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
@@ -35238,7 +37154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
@@ -35255,7 +37171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>6</v>
       </c>
@@ -35272,7 +37188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
@@ -35289,7 +37205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
@@ -35306,7 +37222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
@@ -35323,7 +37239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
@@ -35340,7 +37256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
         <v>6</v>
       </c>
@@ -35357,7 +37273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>6</v>
       </c>
@@ -35374,7 +37290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
         <v>6</v>
       </c>
@@ -35391,7 +37307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
         <v>6</v>
       </c>
@@ -35408,7 +37324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
         <v>6</v>
       </c>
@@ -35425,7 +37341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
         <v>6</v>
       </c>
@@ -35442,7 +37358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
         <v>6</v>
       </c>
@@ -35459,7 +37375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -35476,7 +37392,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
@@ -35493,7 +37409,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
         <v>6</v>
       </c>
@@ -35510,7 +37426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
         <v>6</v>
       </c>
@@ -35527,7 +37443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
         <v>6</v>
       </c>
@@ -35544,7 +37460,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
         <v>6</v>
       </c>
@@ -35561,7 +37477,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
@@ -35578,7 +37494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
@@ -35595,7 +37511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1" t="s">
         <v>6</v>
       </c>
@@ -35612,7 +37528,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1" t="s">
         <v>6</v>
       </c>
@@ -35629,7 +37545,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1" t="s">
         <v>6</v>
       </c>
@@ -35646,7 +37562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
@@ -35663,7 +37579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1" t="s">
         <v>6</v>
       </c>
@@ -35680,7 +37596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1" t="s">
         <v>6</v>
       </c>
@@ -35697,7 +37613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1" t="s">
         <v>6</v>
       </c>
@@ -35714,7 +37630,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
@@ -35731,7 +37647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1" t="s">
         <v>6</v>
       </c>
@@ -35748,7 +37664,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1" t="s">
         <v>6</v>
       </c>
@@ -35765,7 +37681,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1" t="s">
         <v>6</v>
       </c>
@@ -35782,7 +37698,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1" t="s">
         <v>6</v>
       </c>
@@ -35799,7 +37715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1" t="s">
         <v>6</v>
       </c>
@@ -35816,7 +37732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1" t="s">
         <v>6</v>
       </c>
@@ -35833,7 +37749,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1" t="s">
         <v>6</v>
       </c>
@@ -35850,7 +37766,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1" t="s">
         <v>6</v>
       </c>
@@ -35867,7 +37783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1" t="s">
         <v>6</v>
       </c>
@@ -35884,7 +37800,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1" t="s">
         <v>6</v>
       </c>
@@ -35901,7 +37817,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1" t="s">
         <v>6</v>
       </c>
@@ -35918,7 +37834,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1" t="s">
         <v>9</v>
       </c>
@@ -35935,7 +37851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1" t="s">
         <v>9</v>
       </c>
@@ -35952,7 +37868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1" t="s">
         <v>9</v>
       </c>
@@ -35969,7 +37885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1" t="s">
         <v>9</v>
       </c>
@@ -35986,7 +37902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1" t="s">
         <v>9</v>
       </c>
@@ -36003,7 +37919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1" t="s">
         <v>9</v>
       </c>
@@ -36020,7 +37936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1" t="s">
         <v>9</v>
       </c>
@@ -36037,7 +37953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1" t="s">
         <v>9</v>
       </c>
@@ -36054,7 +37970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1" t="s">
         <v>9</v>
       </c>
@@ -36071,7 +37987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1" t="s">
         <v>9</v>
       </c>
@@ -36088,7 +38004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1" t="s">
         <v>9</v>
       </c>
@@ -36105,7 +38021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1" t="s">
         <v>9</v>
       </c>
@@ -36122,7 +38038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1" t="s">
         <v>9</v>
       </c>
@@ -36139,7 +38055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1" t="s">
         <v>9</v>
       </c>
@@ -36156,7 +38072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1" t="s">
         <v>9</v>
       </c>
@@ -36173,7 +38089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1" t="s">
         <v>9</v>
       </c>
@@ -36190,7 +38106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1" t="s">
         <v>9</v>
       </c>
@@ -36207,7 +38123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1" t="s">
         <v>9</v>
       </c>
@@ -36224,7 +38140,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1" t="s">
         <v>9</v>
       </c>
@@ -36241,7 +38157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1" t="s">
         <v>9</v>
       </c>
@@ -36258,7 +38174,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1" t="s">
         <v>9</v>
       </c>
@@ -36275,7 +38191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1" t="s">
         <v>9</v>
       </c>
@@ -36292,7 +38208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1" t="s">
         <v>9</v>
       </c>
@@ -36309,7 +38225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1" t="s">
         <v>9</v>
       </c>
@@ -36326,7 +38242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1" t="s">
         <v>9</v>
       </c>
@@ -36343,7 +38259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1" t="s">
         <v>9</v>
       </c>
@@ -36360,7 +38276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1" t="s">
         <v>9</v>
       </c>
@@ -36377,7 +38293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1" t="s">
         <v>9</v>
       </c>
@@ -36394,7 +38310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1" t="s">
         <v>9</v>
       </c>
@@ -36411,7 +38327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1" t="s">
         <v>9</v>
       </c>
@@ -36428,7 +38344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1" t="s">
         <v>9</v>
       </c>
@@ -36445,7 +38361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1" t="s">
         <v>9</v>
       </c>
@@ -36462,7 +38378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1" t="s">
         <v>9</v>
       </c>
@@ -36479,7 +38395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1" t="s">
         <v>9</v>
       </c>
@@ -36496,7 +38412,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1" t="s">
         <v>9</v>
       </c>
@@ -36513,7 +38429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1" t="s">
         <v>9</v>
       </c>
@@ -36530,7 +38446,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1" t="s">
         <v>9</v>
       </c>
@@ -36547,7 +38463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1" t="s">
         <v>9</v>
       </c>
@@ -36564,7 +38480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1" t="s">
         <v>9</v>
       </c>
@@ -36581,7 +38497,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1" t="s">
         <v>9</v>
       </c>
@@ -36598,7 +38514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1" t="s">
         <v>9</v>
       </c>
@@ -36615,7 +38531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1" t="s">
         <v>9</v>
       </c>
@@ -36632,7 +38548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1" t="s">
         <v>9</v>
       </c>
@@ -36649,7 +38565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1" t="s">
         <v>9</v>
       </c>
@@ -36666,7 +38582,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1" t="s">
         <v>9</v>
       </c>
@@ -36683,7 +38599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1" t="s">
         <v>9</v>
       </c>
@@ -36700,7 +38616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1" t="s">
         <v>9</v>
       </c>
@@ -36717,7 +38633,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1" t="s">
         <v>9</v>
       </c>
@@ -36734,7 +38650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1" t="s">
         <v>9</v>
       </c>
@@ -36751,7 +38667,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1" t="s">
         <v>9</v>
       </c>
@@ -36768,7 +38684,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1" t="s">
         <v>9</v>
       </c>
@@ -36785,7 +38701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1" t="s">
         <v>9</v>
       </c>
@@ -36802,7 +38718,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1" t="s">
         <v>9</v>
       </c>
@@ -36819,7 +38735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1" t="s">
         <v>9</v>
       </c>
@@ -36836,7 +38752,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1" t="s">
         <v>9</v>
       </c>
@@ -36853,7 +38769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1" t="s">
         <v>9</v>
       </c>
@@ -36870,7 +38786,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1" t="s">
         <v>9</v>
       </c>
@@ -36887,7 +38803,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1" t="s">
         <v>9</v>
       </c>
@@ -36904,7 +38820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1" t="s">
         <v>9</v>
       </c>
@@ -36921,7 +38837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1" t="s">
         <v>12</v>
       </c>
@@ -36938,7 +38854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1" t="s">
         <v>12</v>
       </c>
@@ -36955,7 +38871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1" t="s">
         <v>12</v>
       </c>
@@ -36972,7 +38888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1" t="s">
         <v>12</v>
       </c>
@@ -36989,7 +38905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1" t="s">
         <v>12</v>
       </c>
@@ -37006,7 +38922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1" t="s">
         <v>12</v>
       </c>
@@ -37023,7 +38939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1" t="s">
         <v>12</v>
       </c>
@@ -37040,7 +38956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1" t="s">
         <v>12</v>
       </c>
@@ -37057,7 +38973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1" t="s">
         <v>16</v>
       </c>
@@ -37074,7 +38990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1" t="s">
         <v>16</v>
       </c>
@@ -37091,7 +39007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1" t="s">
         <v>16</v>
       </c>
@@ -37108,7 +39024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1" t="s">
         <v>16</v>
       </c>
@@ -37125,7 +39041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1" t="s">
         <v>16</v>
       </c>
@@ -37142,7 +39058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1" t="s">
         <v>16</v>
       </c>
@@ -37159,7 +39075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1" t="s">
         <v>16</v>
       </c>
@@ -37176,7 +39092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1" t="s">
         <v>16</v>
       </c>
@@ -37193,7 +39109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1" t="s">
         <v>16</v>
       </c>
@@ -37210,7 +39126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1" t="s">
         <v>16</v>
       </c>
@@ -37227,7 +39143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1" t="s">
         <v>16</v>
       </c>
@@ -37244,7 +39160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1" t="s">
         <v>16</v>
       </c>
@@ -37261,7 +39177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1" t="s">
         <v>16</v>
       </c>
@@ -37278,7 +39194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1" t="s">
         <v>16</v>
       </c>
@@ -37295,7 +39211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1" t="s">
         <v>16</v>
       </c>
@@ -37312,7 +39228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1" t="s">
         <v>16</v>
       </c>
@@ -37329,7 +39245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1" t="s">
         <v>16</v>
       </c>
@@ -37346,7 +39262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1" t="s">
         <v>16</v>
       </c>
@@ -37363,7 +39279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1" t="s">
         <v>36</v>
       </c>
@@ -37380,7 +39296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1" t="s">
         <v>36</v>
       </c>
@@ -37397,7 +39313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1" t="s">
         <v>54</v>
       </c>
@@ -37414,7 +39330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1" t="s">
         <v>54</v>
       </c>
@@ -37431,7 +39347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1" t="s">
         <v>54</v>
       </c>
@@ -37448,7 +39364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1" t="s">
         <v>54</v>
       </c>
